--- a/data/collector/x0rz/x0rz.xlsx
+++ b/data/collector/x0rz/x0rz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Status</t>
   </si>
@@ -39,136 +39,139 @@
     <t>x0rz</t>
   </si>
   <si>
+    <t>Gravatar</t>
+  </si>
+  <si>
+    <t>82.228.195.193</t>
+  </si>
+  <si>
+    <t>Pastebin</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>BLIP.fm</t>
+  </si>
+  <si>
+    <t>HackerOne</t>
+  </si>
+  <si>
+    <t>Imgur</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>LiveJournal</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Kongregate</t>
+  </si>
+  <si>
+    <t>Scratch</t>
+  </si>
+  <si>
+    <t>Keybase</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>Kik</t>
+  </si>
+  <si>
+    <t>Scribd</t>
+  </si>
+  <si>
+    <t>Docker Hub</t>
+  </si>
+  <si>
+    <t>Pornhub</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>HackerNews</t>
+  </si>
+  <si>
+    <t>Gitee</t>
+  </si>
+  <si>
+    <t>9GAG</t>
+  </si>
+  <si>
+    <t>VirusTotal</t>
+  </si>
+  <si>
+    <t>NameMC (Minecraft.net skins)</t>
+  </si>
+  <si>
+    <t>xvideos</t>
+  </si>
+  <si>
+    <t>Blogger</t>
+  </si>
+  <si>
+    <t>Flipboard</t>
+  </si>
+  <si>
+    <t>DeviantART</t>
+  </si>
+  <si>
+    <t>Archive.org</t>
+  </si>
+  <si>
+    <t>Pixabay</t>
+  </si>
+  <si>
+    <t>Duolingo</t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>Bandcamp</t>
+  </si>
+  <si>
+    <t>TripAdvisor</t>
+  </si>
+  <si>
+    <t>BitBucket</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>MyAnimeList</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
     <t>DailyMotion</t>
   </si>
   <si>
-    <t>82.228.195.193</t>
-  </si>
-  <si>
-    <t>Imgur</t>
-  </si>
-  <si>
-    <t>Pastebin</t>
-  </si>
-  <si>
-    <t>Trello</t>
-  </si>
-  <si>
-    <t>Kik</t>
-  </si>
-  <si>
-    <t>BitBucket</t>
-  </si>
-  <si>
-    <t>Ebay</t>
-  </si>
-  <si>
-    <t>Scratch</t>
-  </si>
-  <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t>MyAnimeList</t>
-  </si>
-  <si>
-    <t>Scribd</t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t>LiveJournal</t>
-  </si>
-  <si>
-    <t>Kongregate</t>
-  </si>
-  <si>
-    <t>Bandcamp</t>
+    <t>last.fm</t>
+  </si>
+  <si>
+    <t>BuyMeACoffee</t>
+  </si>
+  <si>
+    <t>Zhihu</t>
+  </si>
+  <si>
+    <t>Roblox</t>
   </si>
   <si>
     <t>GitHub</t>
-  </si>
-  <si>
-    <t>Gravatar</t>
-  </si>
-  <si>
-    <t>Zhihu</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Keybase</t>
-  </si>
-  <si>
-    <t>NameMC (Minecraft.net skins)</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>Blogger</t>
-  </si>
-  <si>
-    <t>xvideos</t>
-  </si>
-  <si>
-    <t>BLIP.fm</t>
-  </si>
-  <si>
-    <t>Pornhub</t>
-  </si>
-  <si>
-    <t>Archive.org</t>
-  </si>
-  <si>
-    <t>9GAG</t>
-  </si>
-  <si>
-    <t>TikTok</t>
-  </si>
-  <si>
-    <t>Spotify</t>
-  </si>
-  <si>
-    <t>HackerOne</t>
-  </si>
-  <si>
-    <t>TripAdvisor</t>
-  </si>
-  <si>
-    <t>Flipboard</t>
-  </si>
-  <si>
-    <t>Docker Hub</t>
-  </si>
-  <si>
-    <t>VirusTotal</t>
-  </si>
-  <si>
-    <t>HackerNews</t>
-  </si>
-  <si>
-    <t>BuyMeACoffee</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>Pixabay</t>
-  </si>
-  <si>
-    <t>DeviantART</t>
-  </si>
-  <si>
-    <t>last.fm</t>
-  </si>
-  <si>
-    <t>Gitee</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1222,6 +1225,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="s"/>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
